--- a/biology/Botanique/Tylopilus_alboater/Tylopilus_alboater.xlsx
+++ b/biology/Botanique/Tylopilus_alboater/Tylopilus_alboater.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tylopilus alboater, de son nom vernaculaire bolet noirâtre (en anglais : « Black velvet bolete », trad.: bolet noir velours), est une espèce de champignons d'Amérique du Nord du genre Tylopilus de la famille des Boletaceae. Ce bolet se caractérise par son chapeau noirâtre, velouté, et son pied foncé et lisse, son hyménium à pores blanches puis rosâtre, vite rougeâtre puis noire au froissement, sa chair devenant rose puis lentement grisâtre à la coupe. Il a une saveur douce et pousse sous les feuillus. 
 </t>
@@ -511,9 +523,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tylopilus alboater (Schw.) Murrill 1909[1][réf. incomplète]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tylopilus alboater (Schw.) Murrill 1909[réf. incomplète]
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description du sporophore</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Hyménophore (chapeau) : 3-15 cm de diam., convexe puis largement convexe à subétalé, sec, velouté-tomenteux, parfois finement rimeux avec l'âge, noir à brun grisâtre foncé, fonçant souvent au froissement et souvent finement pruineux blanchâtre au début, à marge souvent avec bande étroite de tissu stérile
 Hyménium blanc à teintée de gris puis rosâtre terne à carnée, devenant souvent rougeâtre puis lentement noire au froissement
@@ -578,7 +594,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">solitaire ou dispersé ; sur sol sous feuillus, surtout chênes (Quercus)
 </t>
@@ -609,7 +627,9 @@
           <t>Saison</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">juin à septembre
 </t>
@@ -640,7 +660,9 @@
           <t>Comestibilité</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Bon comestible
 C'est une des meilleures espèces de Tylopilus. Il a une saveur douce et agréable et une texture ferme au début. Il est souvent négligée ou évitée par les mycophages à cause de sa couleur sombre. Lorsque jeune, elle est très dense et pesante.
@@ -672,9 +694,11 @@
           <t>Variétés</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tylopilus atronicotianus, très similaire, a un chapeau presque glabre et brun olive. Tylopilus atratus a un chapeau et un pied plus petit, une chair qui ne devient pas rougeâtre à l'exposition et pousse sous épinettes. Tylopilus griseocarneus, aussi similaire, a un pied réticulé[2][réf. incomplète].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tylopilus atronicotianus, très similaire, a un chapeau presque glabre et brun olive. Tylopilus atratus a un chapeau et un pied plus petit, une chair qui ne devient pas rougeâtre à l'exposition et pousse sous épinettes. Tylopilus griseocarneus, aussi similaire, a un pied réticulé[réf. incomplète].
 </t>
         </is>
       </c>
@@ -703,7 +727,9 @@
           <t>Réactions chimiques</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">- ambre orangé au KOH et négatif au NH4OH ou FeSO4 sur le pileipellis
 - instantanément bleu grisâtre à bleu verdâtre au FeSO4 sur la chair
